--- a/ggzc/QT.xlsx
+++ b/ggzc/QT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="946" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12540" tabRatio="946"/>
   </bookViews>
   <sheets>
     <sheet name="概念" sheetId="11" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="297">
   <si>
     <t>政策研究的内涵</t>
   </si>
@@ -24,15 +24,12 @@
     <t>政策分析的内涵</t>
   </si>
   <si>
+    <t>公共政策学定义</t>
+  </si>
+  <si>
     <t>公共政策的含义</t>
   </si>
   <si>
-    <t>研究主题是学问家</t>
-  </si>
-  <si>
-    <t>研究主体是政府机构</t>
-  </si>
-  <si>
     <t>研究的是公共组织，公共政策</t>
   </si>
   <si>
@@ -42,99 +39,72 @@
     <t>公共政策内涵</t>
   </si>
   <si>
-    <t>研究的是一门学科</t>
-  </si>
-  <si>
-    <t>研究关注的重点是为了政策分析</t>
-  </si>
-  <si>
     <t>纳入政策讨论</t>
   </si>
   <si>
     <t>公共政策的基本特征</t>
   </si>
   <si>
-    <t>目的是为了推荐科学发展</t>
-  </si>
-  <si>
-    <t>目的是为了解决社会问题</t>
-  </si>
-  <si>
     <t>公共权力机关</t>
   </si>
   <si>
     <t>确定为要解决的问题的过程</t>
   </si>
   <si>
+    <t>政策行为者</t>
+  </si>
+  <si>
+    <t>公共政策的主体</t>
+  </si>
+  <si>
     <t>公共利益的内涵</t>
   </si>
   <si>
-    <t>研究成果是为了得到学术界认可</t>
-  </si>
-  <si>
-    <t>研究成果是为了打到预期</t>
-  </si>
-  <si>
     <t>选择制定的解决公共问题，达到目标的方案</t>
   </si>
   <si>
+    <t>政策网络</t>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>模型的认识论意义</t>
+  </si>
+  <si>
     <t>公共问题</t>
   </si>
   <si>
     <t>公共政策问题的基本内涵</t>
   </si>
   <si>
-    <t>具有决定，决策，对策的一般特性</t>
-  </si>
-  <si>
-    <t>政治性，权威性，强制性</t>
-  </si>
-  <si>
     <t>一定数量的社会成员感知预期的价值和实际的价值存在差异</t>
   </si>
   <si>
     <t>公共政策议程</t>
   </si>
   <si>
-    <t>公共权力机关具有权威性和强制性</t>
-  </si>
-  <si>
-    <t>公共性和偏好性的统一</t>
-  </si>
-  <si>
     <t>为了缩小差异，引起政府的关注，予以解决的场景</t>
   </si>
   <si>
     <t>政策目标的含义</t>
   </si>
   <si>
-    <t>主导决策过程的机轴是公共权力机关和公民的关系</t>
-  </si>
-  <si>
-    <t>应然性，实然性的统一</t>
-  </si>
-  <si>
     <t>政策目标特征</t>
   </si>
   <si>
-    <t>三大要素，公共目标，公共利益公共问题</t>
-  </si>
-  <si>
-    <t>回应性和普遍性的统一</t>
-  </si>
-  <si>
     <t>客观事实存在矛盾</t>
   </si>
   <si>
     <t>为了解决特定问题采取的所要达到的目标，效果</t>
   </si>
   <si>
+    <t>政策设计含义</t>
+  </si>
+  <si>
     <t>政策学习</t>
   </si>
   <si>
-    <t>一种权威性价值分配方案</t>
-  </si>
-  <si>
     <t>问题的察觉，要有问题</t>
   </si>
   <si>
@@ -144,9 +114,6 @@
     <t>政策移植</t>
   </si>
   <si>
-    <t>形式上可以是积极的也可以是消极的</t>
-  </si>
-  <si>
     <t>显示与利益期望的冲突</t>
   </si>
   <si>
@@ -165,51 +132,27 @@
     <t>政策采纳</t>
   </si>
   <si>
-    <t>政策制定者学习不同国家的政策方案</t>
-  </si>
-  <si>
-    <t>采纳其他国家的公共政策，解决本国的政策问题</t>
-  </si>
-  <si>
     <t>政府或社会公共组织必要政策行动</t>
   </si>
   <si>
     <t>危机决策的含义</t>
   </si>
   <si>
-    <t>从中获取灵感或启发的过程</t>
-  </si>
-  <si>
-    <t>决策者对各个方案最后做下比较，选择一个最优方案</t>
-  </si>
-  <si>
     <t>公共政策执行的含义</t>
   </si>
   <si>
-    <t>然后对方案进行评估，行程政策文本</t>
-  </si>
-  <si>
     <t>公共政策执行的特点</t>
   </si>
   <si>
-    <t>决策主体依据法律程序，对政策方案加以审批，批准，部署，发布的过程</t>
-  </si>
-  <si>
     <t>政策主体为了实现目标，通过手段影响政策对象，使政策内容变为现实的行动过程</t>
   </si>
   <si>
     <t>“上下来去”模型含义</t>
   </si>
   <si>
-    <t>特殊类型的决策具有不可逆转性，要求在很短的时间内有限的资源下做出反应</t>
-  </si>
-  <si>
     <t>“上下来去”模型内涵</t>
   </si>
   <si>
-    <t>在中国政策时间中，执行主体坚持实事求是，一切从实际出发的原则</t>
-  </si>
-  <si>
     <t>目标导向性</t>
   </si>
   <si>
@@ -222,12 +165,6 @@
     <t>政策执行机关的特性</t>
   </si>
   <si>
-    <t>采集试点，取得经验，全面推广的政策试验方式</t>
-  </si>
-  <si>
-    <t>政策规定性</t>
-  </si>
-  <si>
     <t>内容的务实性</t>
   </si>
   <si>
@@ -240,12 +177,6 @@
     <t>公共政策执行力含义</t>
   </si>
   <si>
-    <t>公共政策有效执行的程度</t>
-  </si>
-  <si>
-    <t>受动性</t>
-  </si>
-  <si>
     <t>行为的能动性</t>
   </si>
   <si>
@@ -258,9 +189,6 @@
     <t>政策对象特点</t>
   </si>
   <si>
-    <t>差异性</t>
-  </si>
-  <si>
     <t>手段的权威性</t>
   </si>
   <si>
@@ -270,108 +198,78 @@
     <t>公共政策执行偏差</t>
   </si>
   <si>
-    <t>执行者收到了主客观的因素，偏离了政策目标，产生了不良后果的现象</t>
+    <t>政策失灵的含义</t>
+  </si>
+  <si>
+    <t>政策无效执行的含义</t>
   </si>
   <si>
     <t>公共政策评估含义</t>
   </si>
   <si>
-    <t>按照一定的标准，按规定的程序，通过考核，公共政策各阶段的影响，判断结果对实现目标的程度</t>
-  </si>
-  <si>
     <t>渐进性</t>
   </si>
   <si>
+    <t>正式评估特点</t>
+  </si>
+  <si>
+    <t>非正式评估</t>
+  </si>
+  <si>
+    <t>内部评估</t>
+  </si>
+  <si>
+    <t>外部评估</t>
+  </si>
+  <si>
+    <t>以定性分析为主的评估方法含义</t>
+  </si>
+  <si>
+    <t>公共政策监控的含义</t>
+  </si>
+  <si>
     <t>政策稳定的内涵</t>
   </si>
   <si>
-    <t>当前公共政策受到外来的影响下，保持既定目标，按既定方式，沿着既定方向，继续实施</t>
-  </si>
-  <si>
     <t>局部性</t>
   </si>
   <si>
+    <t>政策稳定的消极意义</t>
+  </si>
+  <si>
     <t>公共政策变动的含义</t>
   </si>
   <si>
-    <t>公共政策对内外环境的变化做出适应的调整</t>
-  </si>
-  <si>
     <t>动态性</t>
   </si>
   <si>
     <t>公共政策创新含义</t>
   </si>
   <si>
-    <t>政策主体根据外部环境的变化，对政策要素，组织形态，进行创新的政策行为过程</t>
-  </si>
-  <si>
     <t>公共政策调整的含义</t>
   </si>
   <si>
-    <t>根据政策评估的结果，对原有政策的不适应环境的对象进行增删，修正和更新</t>
-  </si>
-  <si>
     <t>公共政策调整的特点</t>
   </si>
   <si>
-    <t>以政策问题为中心，努力保持政策目标的稳定和连续行为的过程。</t>
-  </si>
-  <si>
     <t>公共政策的接续内涵</t>
   </si>
   <si>
-    <t>通常表现为旧的执行程序和组织被行的代替</t>
-  </si>
-  <si>
     <t>公共政策的终结的含义</t>
   </si>
   <si>
-    <t>决策者通过政策评估后，终止那些错误的，过时的，多余的无效的政策功能，政策组织等的一种行为</t>
-  </si>
-  <si>
     <t>知识的含义</t>
   </si>
   <si>
-    <t>人民通过学习获得对事物的理解，通过对事务的好奇星，思维，想象力得到发展，最后运用发挥在活动中的效果</t>
-  </si>
-  <si>
     <t>知识的特征</t>
   </si>
   <si>
-    <t>不可逆，掌握后很难被剥削</t>
-  </si>
-  <si>
-    <t>决策者将科学知识应用于解决公共问题，在领域内创造和应用知识的复杂社会过程</t>
-  </si>
-  <si>
     <t>政策分析的含义</t>
   </si>
   <si>
-    <t>共享，不排斥他人使用</t>
-  </si>
-  <si>
-    <t>在系统调查基础上，为政府，企业，社会，出谋划策，提供依据，以及影响决策行为的组织</t>
-  </si>
-  <si>
     <t>应用性政策研究组织含义</t>
   </si>
   <si>
-    <t>非磨损，可以重复使用</t>
-  </si>
-  <si>
-    <t>政策失灵的含义</t>
-  </si>
-  <si>
-    <t>交换的不对称，可以多次教育</t>
-  </si>
-  <si>
-    <t>政策网络</t>
-  </si>
-  <si>
-    <t>可传播</t>
-  </si>
-  <si>
     <t>公共政策的学科要素</t>
   </si>
   <si>
@@ -601,18 +499,6 @@
   </si>
   <si>
     <t>公共政策评估的主体</t>
-  </si>
-  <si>
-    <t>正式评估特点</t>
-  </si>
-  <si>
-    <t>非正式评估</t>
-  </si>
-  <si>
-    <t>内部评估</t>
-  </si>
-  <si>
-    <t>外部评估</t>
   </si>
   <si>
     <t>公共政策评估的过程</t>
@@ -1028,12 +914,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,47 +940,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,9 +967,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1129,17 +997,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,10 +1036,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1171,13 +1069,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,13 +1098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,25 +1122,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,7 +1188,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,37 +1230,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,37 +1254,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,25 +1278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,39 +1289,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1445,21 +1303,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1488,6 +1331,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1504,10 +1395,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,141 +1407,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1970,446 +1861,396 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3" t="s">
+      <c r="T6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="1" t="s">
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="1" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="1" t="s">
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="N18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="3" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="1" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="1" t="s">
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
+      <c r="N22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="1" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="1" t="s">
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="N24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="1" t="s">
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3" t="s">
+      <c r="N25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="1" t="s">
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="1" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="1" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="3" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="1" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="1" t="s">
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="3" t="s">
+      <c r="M33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="3" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
+      <c r="R35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="1" t="s">
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
+      <c r="M36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="1" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="3" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="1" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O20" s="1" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R20" s="1" t="s">
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="3" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="1" t="s">
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="1" t="s">
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="1" t="s">
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R21" s="1" t="s">
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="3" t="s">
+    <row r="51" spans="1:15">
+      <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K22" s="1" t="s">
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="1" t="s">
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O22" s="1" t="s">
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R22" s="1" t="s">
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="3" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="1" t="s">
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M23" s="1" t="s">
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R23" s="1" t="s">
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2423,8 +2264,8 @@
   <sheetPr/>
   <dimension ref="A1:A128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F1:I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2433,606 +2274,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="3" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>195</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>197</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3056,508 +2897,508 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
